--- a/companies.xlsx
+++ b/companies.xlsx
@@ -22,7 +22,7 @@
     <t>Bachelors, Masters</t>
   </si>
   <si>
-    <t>MEMec, LEMat, MEMat, LENO, MEAer, MEBiol, MEBiom, MEFarm, MicroBio, MBioNano, MBioTec, MEQ, MQ, LEMat, MEMat, MEP, MPSR, MEAmbi, LEIC, MEEC, MECD, LMAC, MMA, MISE, MSIDC, LEE, MEE, LETI, MEGI, MEAer, MEFT, LEGI, MEGE, MEGIE</t>
+    <t>MEMec, LENO, MEAer, MEBiol, MEBiom, MEFarm, MicroBio, MBioNano, MBioTec, MEQ, MQ, LEMat, MEMat, MEP, MPSR, MEAmbi, LEIC, MEEC, MECD, LMAC, MMA, MISE, MSIDC, LEE, MEE, LETI, MEGI, MEAer, MEFT, LEGI, MEGE, MEGIE</t>
   </si>
   <si>
     <t>OLX Group</t>
@@ -31,6 +31,12 @@
     <t>LEIC, MEEC, MECD, LMAC, MMA, MISE, MSIDC, LEE, MEE, LETI, MEGI, MEAer</t>
   </si>
   <si>
+    <t>Energetus</t>
+  </si>
+  <si>
+    <t>MEMec, LEMat, MEMat, LENO, MEAer, LEIC, MEEC, MECD, LMAC, MMA, MISE, MSIDC, LEE, MEE, LETI, MEGI, LEGI, MEGE, MEGIE</t>
+  </si>
+  <si>
     <t>JLL/Tetris</t>
   </si>
   <si>
@@ -43,40 +49,34 @@
     <t>LEIC, MEEC, MECD, LMAC, MMA, MISE, MSDIC, LEE, MEE, LETI, MEGI, MEAer</t>
   </si>
   <si>
-    <t>Energetus</t>
-  </si>
-  <si>
-    <t>MEMec, LEMat, MEMat, LENO, MEAer, LEIC, MEEC, MECD, LMAC, MMA, MISE, MSIDC, LEE, MEE, LETI, MEGI, LEGI, MEGE, MEGIE</t>
+    <t>JETsj Geotecnia</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>MA, MOTU, MEC, LEGM, MEGM, LENO</t>
+  </si>
+  <si>
+    <t>Oak Peak</t>
+  </si>
+  <si>
+    <t>ISQ - Instituto de Soldadura e Qualidade</t>
   </si>
   <si>
     <t>Grupo ETE</t>
   </si>
   <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Masters</t>
-  </si>
-  <si>
     <t>MEMec, LEMat, MEMat, LENO, MEAer, LEGM, MEGM, MEP, LEGI, MEGE, MEGIE</t>
   </si>
   <si>
     <t>engidro</t>
   </si>
   <si>
-    <t>MA, MOTU, MEC, LEGM, MEGM, LENO</t>
-  </si>
-  <si>
-    <t>ISQ - Instituto de Soldadura e Qualidade</t>
-  </si>
-  <si>
-    <t>JETsj Geotecnia</t>
-  </si>
-  <si>
     <t>Premium Minds</t>
-  </si>
-  <si>
-    <t>Oak Peak</t>
   </si>
   <si>
     <t>Skyline Communications</t>
@@ -437,7 +437,7 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -476,10 +476,10 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -490,16 +490,16 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -522,7 +522,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -532,11 +532,11 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -546,10 +546,10 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
